--- a/webapp/static/Upload/G25/G25.xlsx
+++ b/webapp/static/Upload/G25/G25.xlsx
@@ -3179,7 +3179,22 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>朱张婷</t>
+      <t>朱张婷：现金</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>朱张婷：主权国家发行的风险权重为零的证券</t>
     </r>
     <r>
       <rPr>
@@ -3196,7 +3211,26 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>陆轶凡</t>
+      <t>陆轶凡：主权国家发行的风险权重为零的证券</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>朱张婷</t>
     </r>
     <r>
       <rPr>
@@ -3213,37 +3247,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>吴玉姝</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>朱张婷：现金</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>朱张婷：主权国家发行的风险权重为零的证券</t>
+      <t>陆轶凡</t>
     </r>
     <r>
       <rPr>
@@ -3260,12 +3264,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>陆轶凡：主权国家发行的风险权重为零的证券</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTE</t>
+      <t>吴玉姝：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>100</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4710,8 +4718,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I190"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4856,7 +4864,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D9" s="34">
         <v>1</v>
@@ -4925,7 +4933,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D12" s="34">
         <v>1</v>
@@ -4949,7 +4957,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D13" s="34">
         <v>1</v>
@@ -5104,7 +5112,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="25.5">
+    <row r="20" spans="1:8" ht="38.25">
       <c r="A20" s="22">
         <v>14</v>
       </c>
@@ -5112,7 +5120,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D20" s="34">
         <v>0.85</v>
